--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H2">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1918.18801307015</v>
+        <v>3660.138647085684</v>
       </c>
       <c r="R2">
-        <v>1918.18801307015</v>
+        <v>32941.24782377115</v>
       </c>
       <c r="S2">
-        <v>0.2804591946877281</v>
+        <v>0.3080942788078155</v>
       </c>
       <c r="T2">
-        <v>0.2804591946877281</v>
+        <v>0.3080942788078155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H3">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>1840.403775484976</v>
+        <v>3176.542428682825</v>
       </c>
       <c r="R3">
-        <v>1840.403775484976</v>
+        <v>28588.88185814543</v>
       </c>
       <c r="S3">
-        <v>0.2690863237887905</v>
+        <v>0.2673872885790031</v>
       </c>
       <c r="T3">
-        <v>0.2690863237887905</v>
+        <v>0.2673872885790031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H4">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>2545.483834390822</v>
+        <v>4441.365982633727</v>
       </c>
       <c r="R4">
-        <v>2545.483834390822</v>
+        <v>39972.29384370354</v>
       </c>
       <c r="S4">
-        <v>0.3721764193183769</v>
+        <v>0.3738545397537422</v>
       </c>
       <c r="T4">
-        <v>0.3721764193183769</v>
+        <v>0.3738545397537422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>96.82574067549417</v>
+        <v>113.30498921215</v>
       </c>
       <c r="R5">
-        <v>96.82574067549417</v>
+        <v>1019.74490290935</v>
       </c>
       <c r="S5">
-        <v>0.01415693825102576</v>
+        <v>0.009537512729043749</v>
       </c>
       <c r="T5">
-        <v>0.01415693825102576</v>
+        <v>0.009537512729043747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>92.89937038971158</v>
+        <v>98.33455514053334</v>
       </c>
       <c r="R6">
-        <v>92.89937038971158</v>
+        <v>885.0109962648</v>
       </c>
       <c r="S6">
-        <v>0.01358286175753651</v>
+        <v>0.008277367818301871</v>
       </c>
       <c r="T6">
-        <v>0.01358286175753651</v>
+        <v>0.008277367818301868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>128.49019802178</v>
+        <v>137.4890334141333</v>
       </c>
       <c r="R7">
-        <v>128.49019802178</v>
+        <v>1237.4013007272</v>
       </c>
       <c r="S7">
-        <v>0.01878661383394708</v>
+        <v>0.0115732185794216</v>
       </c>
       <c r="T7">
-        <v>0.01878661383394708</v>
+        <v>0.0115732185794216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H8">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>66.07809664382916</v>
+        <v>82.028224042727</v>
       </c>
       <c r="R8">
-        <v>66.07809664382916</v>
+        <v>738.254016384543</v>
       </c>
       <c r="S8">
-        <v>0.009661310385088127</v>
+        <v>0.006904773005922215</v>
       </c>
       <c r="T8">
-        <v>0.009661310385088127</v>
+        <v>0.006904773005922215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H9">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>63.39857079261029</v>
+        <v>71.19023598428268</v>
       </c>
       <c r="R9">
-        <v>63.39857079261029</v>
+        <v>640.712123858544</v>
       </c>
       <c r="S9">
-        <v>0.009269535617830048</v>
+        <v>0.005992479118571026</v>
       </c>
       <c r="T9">
-        <v>0.009269535617830048</v>
+        <v>0.005992479118571025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H10">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>87.68729950771009</v>
+        <v>99.53649274169068</v>
       </c>
       <c r="R10">
-        <v>87.68729950771009</v>
+        <v>895.828434675216</v>
       </c>
       <c r="S10">
-        <v>0.01282080235967704</v>
+        <v>0.008378541608178769</v>
       </c>
       <c r="T10">
-        <v>0.01282080235967704</v>
+        <v>0.008378541608178769</v>
       </c>
     </row>
   </sheetData>
